--- a/ARD_Testate_Input.xlsx
+++ b/ARD_Testate_Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minda\Desktop\WORK_2020\PYTHON_EXP\PLOTTER\UP_TO_DATE_FILES_REQUIRED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minda\Desktop\WORK_2020\PYTHON_EXP\PLOTTER\UP_TO_DATE_FILES_REQUIRED\SUBMISSION_FILES\ARDKILL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493B996F-918C-4E88-A889-2868F4F77407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E590785-4B33-46EF-9C8F-B422F2E528C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARD_Testate_Input" sheetId="1" r:id="rId1"/>
@@ -241,13 +241,13 @@
     <t>Exaggeration line style - Ex style Graphs 3,4</t>
   </si>
   <si>
-    <t>Percentage plot 1</t>
+    <t>DATA</t>
   </si>
   <si>
-    <t>Percentage plot 2</t>
+    <t>Stack plot 1</t>
   </si>
   <si>
-    <t>DATA</t>
+    <t>Stack plot 2</t>
   </si>
 </sst>
 </file>
@@ -805,10 +805,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1108,53 +1104,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="AV18" sqref="AV18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="27" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1268,7 +1264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1384,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1500,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1616,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -1732,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -1848,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1964,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -2080,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -2196,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -2312,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2428,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -2544,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -2660,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
@@ -2776,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -2892,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -3008,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -3124,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -3240,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -3356,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -3472,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -3588,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
@@ -3704,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
@@ -3820,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -3936,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>60</v>
       </c>
@@ -4052,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
@@ -4168,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>62</v>
       </c>
@@ -4284,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
@@ -4400,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>64</v>
       </c>
@@ -4516,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
@@ -4632,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
@@ -4748,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
@@ -4864,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>68</v>
       </c>
@@ -4980,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>69</v>
       </c>
@@ -5096,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
@@ -5212,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>71</v>
       </c>
@@ -5328,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -5444,241 +5440,241 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
-        <v>0</v>
-      </c>
-      <c r="O38" s="1">
-        <v>0</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>0</v>
-      </c>
-      <c r="R38" s="1">
-        <v>0</v>
-      </c>
-      <c r="S38" s="1">
-        <v>0</v>
-      </c>
-      <c r="T38" s="1">
-        <v>0</v>
-      </c>
-      <c r="U38" s="1">
-        <v>0</v>
-      </c>
-      <c r="V38" s="1">
-        <v>0</v>
-      </c>
-      <c r="W38" s="1">
-        <v>0</v>
-      </c>
-      <c r="X38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0</v>
-      </c>
-      <c r="R39" s="1">
-        <v>0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>0</v>
-      </c>
-      <c r="U39" s="1">
-        <v>0</v>
-      </c>
-      <c r="V39" s="1">
-        <v>0</v>
-      </c>
-      <c r="W39" s="1">
-        <v>0</v>
-      </c>
-      <c r="X39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -5792,9 +5788,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B41" s="1">
         <v>4</v>
@@ -5908,9 +5904,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B42" s="1">
         <v>8</v>
@@ -6024,9 +6020,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B43" s="1">
         <v>12</v>
@@ -6140,9 +6136,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B44" s="1">
         <v>16</v>
@@ -6256,9 +6252,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B45" s="1">
         <v>20</v>
@@ -6372,9 +6368,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1">
         <v>24</v>
@@ -6488,9 +6484,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B47" s="1">
         <v>28</v>
@@ -6604,9 +6600,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B48" s="1">
         <v>32</v>
@@ -6720,9 +6716,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B49" s="1">
         <v>36</v>
@@ -6836,9 +6832,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B50" s="1">
         <v>40</v>
@@ -6952,9 +6948,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B51" s="1">
         <v>44</v>
@@ -7068,9 +7064,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B52" s="1">
         <v>48</v>
@@ -7184,9 +7180,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B53" s="1">
         <v>52</v>
@@ -7300,9 +7296,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B54" s="1">
         <v>56</v>
@@ -7416,9 +7412,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B55" s="1">
         <v>60</v>
@@ -7532,9 +7528,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B56" s="1">
         <v>64</v>
@@ -7648,9 +7644,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B57" s="1">
         <v>68</v>
@@ -7764,9 +7760,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B58" s="1">
         <v>72</v>
@@ -7880,9 +7876,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B59" s="1">
         <v>76</v>
@@ -7996,9 +7992,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" s="1">
         <v>80</v>
@@ -8112,9 +8108,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61" s="1">
         <v>84</v>
@@ -8228,9 +8224,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B62" s="1">
         <v>88</v>
@@ -8344,9 +8340,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B63" s="1">
         <v>92</v>
@@ -8460,9 +8456,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B64" s="1">
         <v>96</v>
@@ -8576,9 +8572,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B65" s="1">
         <v>100</v>
@@ -8692,9 +8688,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B66" s="1">
         <v>104</v>
@@ -8808,9 +8804,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B67" s="1">
         <v>108</v>
@@ -8924,9 +8920,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B68" s="1">
         <v>112</v>
@@ -9040,9 +9036,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B69" s="1">
         <v>116</v>
@@ -9156,9 +9152,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B70" s="1">
         <v>120</v>
@@ -9272,9 +9268,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B71" s="1">
         <v>124</v>
@@ -9388,9 +9384,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B72" s="1">
         <v>128</v>
@@ -9504,9 +9500,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1">
         <v>132</v>
@@ -9620,9 +9616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1">
         <v>136</v>
@@ -9736,9 +9732,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1">
         <v>140</v>
@@ -9852,9 +9848,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76" s="1">
         <v>144</v>
@@ -9968,9 +9964,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B77" s="1">
         <v>148</v>
@@ -10084,9 +10080,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B78" s="1">
         <v>152</v>
@@ -10200,9 +10196,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B79" s="1">
         <v>156</v>
@@ -10316,9 +10312,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B80" s="1">
         <v>160</v>
@@ -10432,9 +10428,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B81" s="1">
         <v>164</v>
@@ -10548,9 +10544,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B82" s="1">
         <v>168</v>
@@ -10664,9 +10660,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B83" s="1">
         <v>172</v>
@@ -10780,9 +10776,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B84" s="1">
         <v>176</v>
@@ -10896,9 +10892,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B85" s="1">
         <v>180</v>
@@ -11012,9 +11008,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B86" s="1">
         <v>184</v>
@@ -11128,9 +11124,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B87" s="1">
         <v>188</v>
@@ -11244,9 +11240,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B88" s="1">
         <v>192</v>
@@ -11360,9 +11356,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B89" s="1">
         <v>196</v>
@@ -11476,9 +11472,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B90" s="1">
         <v>200</v>
@@ -11592,9 +11588,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B91" s="1">
         <v>204</v>
@@ -11708,9 +11704,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B92" s="1">
         <v>208</v>
@@ -11824,9 +11820,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B93" s="1">
         <v>212</v>
@@ -11940,9 +11936,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B94" s="1">
         <v>216</v>
@@ -12056,9 +12052,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B95" s="1">
         <v>220</v>
@@ -12172,9 +12168,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B96" s="1">
         <v>224</v>
@@ -12288,9 +12284,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B97" s="1">
         <v>228</v>
@@ -12404,9 +12400,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B98" s="1">
         <v>232</v>
@@ -12520,9 +12516,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B99" s="1">
         <v>236</v>
@@ -12636,9 +12632,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B100" s="1">
         <v>240</v>
@@ -12752,9 +12748,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B101" s="1">
         <v>244</v>
@@ -12868,9 +12864,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B102" s="1">
         <v>248</v>
@@ -12984,9 +12980,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B103" s="1">
         <v>252</v>
@@ -13100,9 +13096,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B104" s="1">
         <v>256</v>
